--- a/MixerReports.Raports/Template_08-08.xlsx
+++ b/MixerReports.Raports/Template_08-08.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ИнженерКИПиА\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\MixerReports\MixerReports.Raports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>№</t>
   </si>
@@ -130,13 +130,28 @@
   </si>
   <si>
     <t>Сумма:</t>
+  </si>
+  <si>
+    <t>Норма</t>
+  </si>
+  <si>
+    <t>Характеристик</t>
+  </si>
+  <si>
+    <t>Плохо</t>
+  </si>
+  <si>
+    <t>Недоросток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,12 +161,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,7 +184,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,18 +193,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <left style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -195,18 +211,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -487,11 +506,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -507,334 +524,356 @@
     <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="7">
         <v>44326.335358796299</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>17</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>41.7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>1172.8</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>1158.4000000000001</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>2182.5700000000002</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <v>2182.1999999999998</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="6">
         <v>207.19</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="6">
         <v>202.4</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6">
         <v>93.21</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="6">
         <v>93.2</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="6">
         <v>687.82</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="6">
         <v>683.3</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
         <v>557.61</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="6">
         <v>553.70000000000005</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="6">
         <v>2.75</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="6">
         <v>2.758</v>
       </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6">
         <v>1439.59</v>
       </c>
+      <c r="AA2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>105</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>44326.831828703704</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>17</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>2001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>43.2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>1161.71</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>1147</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>2193.34</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>2193.1999999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>280.77999999999997</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>275.8</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>23.31</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>23.6</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>687.82</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="1">
         <v>682.9</v>
       </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>554.23</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="1">
         <v>550.5</v>
       </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
         <v>2.75</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="1">
         <v>2.714</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="1">
         <v>1443.12</v>
       </c>
+      <c r="AA3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="8"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4">
-        <f>SUM(F2:F3)</f>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:Z4" si="0">SUM(F2:F3)</f>
         <v>2334.5100000000002</v>
       </c>
-      <c r="G4">
-        <f>SUM(G2:G3)</f>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
         <v>2305.4</v>
       </c>
-      <c r="H4">
-        <f>SUM(H2:H3)</f>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
         <v>4375.91</v>
       </c>
-      <c r="I4">
-        <f>SUM(I2:I3)</f>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
         <v>4375.3999999999996</v>
       </c>
-      <c r="J4">
-        <f>SUM(J2:J3)</f>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
         <v>487.96999999999997</v>
       </c>
-      <c r="K4">
-        <f>SUM(K2:K3)</f>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
         <v>478.20000000000005</v>
       </c>
-      <c r="L4">
-        <f>SUM(L2:L3)</f>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
         <v>116.52</v>
       </c>
-      <c r="M4">
-        <f>SUM(M2:M3)</f>
+      <c r="M4" s="3">
+        <f t="shared" si="0"/>
         <v>116.80000000000001</v>
       </c>
-      <c r="N4">
-        <f>SUM(N2:N3)</f>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
         <v>687.82</v>
       </c>
-      <c r="O4">
-        <f>SUM(O2:O3)</f>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
         <v>683.3</v>
       </c>
-      <c r="P4">
-        <f>SUM(P2:P3)</f>
+      <c r="P4" s="3">
+        <f t="shared" si="0"/>
         <v>687.82</v>
       </c>
-      <c r="Q4">
-        <f>SUM(Q2:Q3)</f>
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
         <v>682.9</v>
       </c>
-      <c r="R4">
-        <f>SUM(R2:R3)</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>SUM(S2:S3)</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>SUM(T2:T3)</f>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="0"/>
         <v>1111.8400000000001</v>
       </c>
-      <c r="U4">
-        <f>SUM(U2:U3)</f>
+      <c r="U4" s="3">
+        <f t="shared" si="0"/>
         <v>1104.2</v>
       </c>
-      <c r="V4">
-        <f>SUM(V2:V3)</f>
+      <c r="V4" s="3">
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="W4">
-        <f>SUM(W2:W3)</f>
+      <c r="W4" s="3">
+        <f t="shared" si="0"/>
         <v>2.758</v>
       </c>
-      <c r="X4">
-        <f>SUM(X2:X3)</f>
+      <c r="X4" s="3">
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="Y4">
-        <f>SUM(Y2:Y3)</f>
+      <c r="Y4" s="3">
+        <f t="shared" si="0"/>
         <v>2.714</v>
       </c>
-      <c r="Z4">
-        <f>SUM(Z2:Z3)</f>
+      <c r="Z4" s="3">
+        <f t="shared" si="0"/>
         <v>2882.71</v>
       </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -844,11 +883,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -864,334 +901,356 @@
     <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>44326.836747685185</v>
-      </c>
-      <c r="C2" s="1">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="7">
+        <v>44326.335358796299</v>
+      </c>
+      <c r="C2" s="6">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6">
         <v>2001</v>
       </c>
-      <c r="E2" s="1">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1159.6500000000001</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1145.2</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="E2" s="6">
+        <v>41.7</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1172.8</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1158.4000000000001</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2182.5700000000002</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2182.1999999999998</v>
+      </c>
+      <c r="J2" s="6">
+        <v>207.19</v>
+      </c>
+      <c r="K2" s="6">
+        <v>202.4</v>
+      </c>
+      <c r="L2" s="6">
+        <v>93.21</v>
+      </c>
+      <c r="M2" s="6">
+        <v>93.2</v>
+      </c>
+      <c r="N2" s="6">
+        <v>687.82</v>
+      </c>
+      <c r="O2" s="6">
+        <v>683.3</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>557.61</v>
+      </c>
+      <c r="U2" s="6">
+        <v>553.70000000000005</v>
+      </c>
+      <c r="V2" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="W2" s="6">
+        <v>2.758</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>1439.59</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44326.831828703704</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1161.71</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1147</v>
+      </c>
+      <c r="H3" s="1">
         <v>2193.34</v>
       </c>
-      <c r="I2" s="1">
-        <v>2193</v>
-      </c>
-      <c r="J2" s="1">
-        <v>283.57</v>
-      </c>
-      <c r="K2" s="1">
-        <v>278.60000000000002</v>
-      </c>
-      <c r="L2" s="1">
-        <v>22.58</v>
-      </c>
-      <c r="M2" s="1">
-        <v>22.6</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="I3" s="1">
+        <v>2193.1999999999998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>280.77999999999997</v>
+      </c>
+      <c r="K3" s="1">
+        <v>275.8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>23.31</v>
+      </c>
+      <c r="M3" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>687.82</v>
       </c>
-      <c r="Q2" s="1">
-        <v>683</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1">
+      <c r="Q3" s="1">
+        <v>682.9</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>554.23</v>
       </c>
-      <c r="U2" s="1">
-        <v>550.4</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
+      <c r="U3" s="1">
+        <v>550.5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
         <v>2.75</v>
       </c>
-      <c r="Y2" s="1">
-        <v>2.6970000000000001</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1441.89</v>
-      </c>
+      <c r="Y3" s="1">
+        <v>2.714</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1443.12</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="8"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>109</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44327.33258101852</v>
-      </c>
-      <c r="C3" s="3">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2001</v>
-      </c>
-      <c r="E3" s="3">
-        <v>41.8</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1170.94</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1156.4000000000001</v>
-      </c>
-      <c r="H3" s="3">
-        <v>2192.65</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2192.1999999999998</v>
-      </c>
-      <c r="J3" s="3">
-        <v>230.33</v>
-      </c>
-      <c r="K3" s="3">
-        <v>225.4</v>
-      </c>
-      <c r="L3" s="3">
-        <v>69.81</v>
-      </c>
-      <c r="M3" s="3">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="N3" s="3">
-        <v>683.23</v>
-      </c>
-      <c r="O3" s="3">
-        <v>678.4</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>554.23</v>
-      </c>
-      <c r="U3" s="3">
-        <v>550.4</v>
-      </c>
-      <c r="V3" s="3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:Z4" si="0">SUM(F2:F3)</f>
+        <v>2334.5100000000002</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>2305.4</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>4375.91</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>4375.3999999999996</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>487.96999999999997</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>478.20000000000005</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>116.52</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="0"/>
+        <v>116.80000000000001</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>687.82</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>683.3</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="0"/>
+        <v>687.82</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>682.9</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="0"/>
+        <v>1111.8400000000001</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="0"/>
+        <v>1104.2</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="W3" s="3">
-        <v>2.7080000000000002</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>1444.87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <f>SUM(F2:F3)</f>
-        <v>2330.59</v>
-      </c>
-      <c r="G4">
-        <f>SUM(G2:G3)</f>
-        <v>2301.6000000000004</v>
-      </c>
-      <c r="H4">
-        <f>SUM(H2:H3)</f>
-        <v>4385.99</v>
-      </c>
-      <c r="I4">
-        <f>SUM(I2:I3)</f>
-        <v>4385.2</v>
-      </c>
-      <c r="J4">
-        <f>SUM(J2:J3)</f>
-        <v>513.9</v>
-      </c>
-      <c r="K4">
-        <f>SUM(K2:K3)</f>
-        <v>504</v>
-      </c>
-      <c r="L4">
-        <f>SUM(L2:L3)</f>
-        <v>92.39</v>
-      </c>
-      <c r="M4">
-        <f>SUM(M2:M3)</f>
-        <v>92.699999999999989</v>
-      </c>
-      <c r="N4">
-        <f>SUM(N2:N3)</f>
-        <v>683.23</v>
-      </c>
-      <c r="O4">
-        <f>SUM(O2:O3)</f>
-        <v>678.4</v>
-      </c>
-      <c r="P4">
-        <f>SUM(P2:P3)</f>
-        <v>687.82</v>
-      </c>
-      <c r="Q4">
-        <f>SUM(Q2:Q3)</f>
-        <v>683</v>
-      </c>
-      <c r="R4">
-        <f>SUM(R2:R3)</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>SUM(S2:S3)</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>SUM(T2:T3)</f>
-        <v>1108.46</v>
-      </c>
-      <c r="U4">
-        <f>SUM(U2:U3)</f>
-        <v>1100.8</v>
-      </c>
-      <c r="V4">
-        <f>SUM(V2:V3)</f>
+      <c r="W4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.758</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="0"/>
         <v>2.75</v>
       </c>
-      <c r="W4">
-        <f>SUM(W2:W3)</f>
-        <v>2.7080000000000002</v>
-      </c>
-      <c r="X4">
-        <f>SUM(X2:X3)</f>
-        <v>2.75</v>
-      </c>
-      <c r="Y4">
-        <f>SUM(Y2:Y3)</f>
-        <v>2.6970000000000001</v>
-      </c>
-      <c r="Z4">
-        <f>SUM(Z2:Z3)</f>
-        <v>2886.76</v>
-      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="0"/>
+        <v>2.714</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="0"/>
+        <v>2882.71</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
